--- a/dane_pogodowe.xlsx
+++ b/dane_pogodowe.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,9 +441,294 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>odczuwalna</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Ciśnienie</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wilgotność</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zwykla temperatura</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>opis pogody</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>miejsce</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>predkosc wiatru</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>data pomiaru</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1016</v>
+      </c>
+      <c r="D2" t="n">
+        <v>57</v>
+      </c>
+      <c r="E2" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>45847.81916202547</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1016</v>
+      </c>
+      <c r="D3" t="n">
+        <v>57</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>45847.81916546296</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1016</v>
+      </c>
+      <c r="D4" t="n">
+        <v>57</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>45847.81928243056</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1016</v>
+      </c>
+      <c r="D5" t="n">
+        <v>57</v>
+      </c>
+      <c r="E5" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>45847.81939944444</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1016</v>
+      </c>
+      <c r="D6" t="n">
+        <v>57</v>
+      </c>
+      <c r="E6" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>45847.81951637731</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1016</v>
+      </c>
+      <c r="D7" t="n">
+        <v>57</v>
+      </c>
+      <c r="E7" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>45847.81963336805</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1016</v>
+      </c>
+      <c r="D8" t="n">
+        <v>57</v>
+      </c>
+      <c r="E8" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>45847.81975040509</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1016</v>
+      </c>
+      <c r="D9" t="n">
+        <v>57</v>
+      </c>
+      <c r="E9" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>45847.81986749642</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dane_pogodowe.xlsx
+++ b/dane_pogodowe.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,7 +727,100 @@
         <v>16.67</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>45847.81986749642</v>
+        <v>45847.8198675</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1016</v>
+      </c>
+      <c r="D10" t="n">
+        <v>59</v>
+      </c>
+      <c r="E10" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>45847.82688655092</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1016</v>
+      </c>
+      <c r="D11" t="n">
+        <v>59</v>
+      </c>
+      <c r="E11" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>45847.82700614583</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1016</v>
+      </c>
+      <c r="D12" t="n">
+        <v>59</v>
+      </c>
+      <c r="E12" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>45847.82712346529</v>
       </c>
     </row>
   </sheetData>
